--- a/docs/data-cleaning-requests/modeling/divest.xlsx
+++ b/docs/data-cleaning-requests/modeling/divest.xlsx
@@ -359,7 +359,28 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1"/>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>term</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>university</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>county</t>
+        </is>
+      </c>
+    </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
